--- a/spatial_fa/network_analysis/summary_network.xlsx
+++ b/spatial_fa/network_analysis/summary_network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\marval_windows\JR_MARVAL\inp\sptatial_transcriptomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36A97F-71E1-46E9-BFF5-F841A0474A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFA881-22E0-4056-8324-074A37E1E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{9AE5B09D-E5AE-44F3-9D44-FCF245131A56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t>Community</t>
   </si>
@@ -352,6 +352,135 @@
   </si>
   <si>
     <t>axon guidance (GO:0007411)</t>
+  </si>
+  <si>
+    <t>Relevancia para HNSCC no FA (TCGA)</t>
+  </si>
+  <si>
+    <t>Cytokine-mediated signaling pathway (GO:0019221)</t>
+  </si>
+  <si>
+    <t>Protein transport (GO:0015031)</t>
+  </si>
+  <si>
+    <t>Regulation of transcription, DNA-templated (GO:0006355)</t>
+  </si>
+  <si>
+    <t>Translation (GO:0006412)</t>
+  </si>
+  <si>
+    <t>Phosphatidylinositol biosynthetic process (GO:0006661)</t>
+  </si>
+  <si>
+    <t>Regulation of transcription by RNA polymerase II (GO:0006357)</t>
+  </si>
+  <si>
+    <t>Inorganic cation transmembrane transport (GO:0098662)</t>
+  </si>
+  <si>
+    <t>Generation of neurons (GO:0048699)</t>
+  </si>
+  <si>
+    <t>Phosphatidylcholine metabolic process (GO:0046470)</t>
+  </si>
+  <si>
+    <t>Proteolysis (GO:0006508)</t>
+  </si>
+  <si>
+    <t>Remodelación de matriz extracelular; facilita invasión y progresión tumoral.</t>
+  </si>
+  <si>
+    <t>Adenylate cyclase-modulating GPCR signaling (GO:0007188)</t>
+  </si>
+  <si>
+    <t>Organelle assembly (GO:0070925)</t>
+  </si>
+  <si>
+    <t>Phosphate-containing compound metabolic process (GO:0006796)</t>
+  </si>
+  <si>
+    <t>Neutrophil degranulation (GO:0043312)</t>
+  </si>
+  <si>
+    <t>Muscle contraction (GO:0006936)</t>
+  </si>
+  <si>
+    <t>Steroid metabolic process (GO:0008202)</t>
+  </si>
+  <si>
+    <t>Skin development (GO:0043588)</t>
+  </si>
+  <si>
+    <t>Endocytic recycling (GO:0032456)</t>
+  </si>
+  <si>
+    <t>Axon guidance (GO:0007411)</t>
+  </si>
+  <si>
+    <t>Activación de señalización inflamatoria e inmune; comunicación entre células tumorales e inmunes.</t>
+  </si>
+  <si>
+    <t>Tráfico intracelular y secreción de proteínas; soporte de señalización y homeostasis celular.</t>
+  </si>
+  <si>
+    <t>Control transcripcional general de crecimiento y diferenciación; soporte del programa tumoral.</t>
+  </si>
+  <si>
+    <t>Ajuste post-transcripcional de la expresión génica; plasticidad adaptativa del tumor.</t>
+  </si>
+  <si>
+    <t>Transmembrane receptor protein tyrosine kinase signaling (GO:0007169)</t>
+  </si>
+  <si>
+    <t>Activación de vías proliferativas (EGFR, FGFR, MET); eje central de la biología HNSCC.</t>
+  </si>
+  <si>
+    <t>Regulación del tráfico de proteínas y receptores; facilita comunicación celular.</t>
+  </si>
+  <si>
+    <t>Síntesis proteica elevada asociada a crecimiento y adaptación tumoral.</t>
+  </si>
+  <si>
+    <t>Generación de lípidos señalizadores (PI3K/AKT); promueve supervivencia y migración celular.</t>
+  </si>
+  <si>
+    <t>Regulación fina de programas génicos relacionados con diferenciación y proliferación.</t>
+  </si>
+  <si>
+    <t>Control de iones (Ca²⁺, Na⁺, K⁺); esencial para señalización y metabolismo energético.</t>
+  </si>
+  <si>
+    <t>Activación de programas neuroectodérmicos aberrantes o plasticidad celular.</t>
+  </si>
+  <si>
+    <t>Remodelación de membranas y señalización lipídica; soporte a crecimiento celular.</t>
+  </si>
+  <si>
+    <t>Señalización GPCR; regula proliferación, metabolismo y comunicación intercelular.</t>
+  </si>
+  <si>
+    <t>Mantenimiento estructural celular; soporte de proliferación y organización interna.</t>
+  </si>
+  <si>
+    <t>Actividad metabólica intensa; fosforilación y señalización energética.</t>
+  </si>
+  <si>
+    <t>Participación inmune innata; liberación de factores proinflamatorios y remodeladores.</t>
+  </si>
+  <si>
+    <t>Actividad de miofilamentos; relacionada con transición epitelio-mesenquimal.</t>
+  </si>
+  <si>
+    <t>Metabolismo hormonal; modulación de proliferación y respuesta a estrés.</t>
+  </si>
+  <si>
+    <t>Programas de diferenciación epitelial; marca de origen escamoso.</t>
+  </si>
+  <si>
+    <t>Reciclaje de receptores y moléculas de superficie; modula señalización y adhesión.</t>
+  </si>
+  <si>
+    <t>Implicado en migración celular y organización tisular; asociado a invasión tumoral.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +567,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5B8E1-AD21-4242-9513-BB7AD3B83808}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1499,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A8729-A6E6-4722-A051-5851322C2E5A}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1510,9 +1645,12 @@
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="28.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="8"/>
+    <col min="6" max="6" width="29.54296875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -1522,8 +1660,17 @@
       <c r="C1" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1533,8 +1680,17 @@
       <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1544,8 +1700,17 @@
       <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1555,8 +1720,17 @@
       <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1566,8 +1740,17 @@
       <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1577,8 +1760,17 @@
       <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1588,8 +1780,17 @@
       <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1599,8 +1800,17 @@
       <c r="C8" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1610,8 +1820,17 @@
       <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1621,8 +1840,17 @@
       <c r="C10" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1632,8 +1860,17 @@
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1643,8 +1880,17 @@
       <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1654,8 +1900,17 @@
       <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E13" s="5">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1665,8 +1920,17 @@
       <c r="C14" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="E14" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1676,8 +1940,17 @@
       <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="5">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1687,8 +1960,17 @@
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="E16" s="5">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1697,6 +1979,81 @@
       </c>
       <c r="C17" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="E18" s="5">
+        <v>16</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="5">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E20" s="5">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E21" s="5">
+        <v>19</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E23" s="5">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/spatial_fa/network_analysis/summary_network.xlsx
+++ b/spatial_fa/network_analysis/summary_network.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\marval_windows\JR_MARVAL\inp\sptatial_transcriptomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DFA881-22E0-4056-8324-074A37E1E4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB7872F-92D7-43B7-BA41-F0F4F2AA77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{9AE5B09D-E5AE-44F3-9D44-FCF245131A56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{9AE5B09D-E5AE-44F3-9D44-FCF245131A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="169">
   <si>
     <t>Community</t>
   </si>
@@ -481,6 +482,69 @@
   </si>
   <si>
     <t>Implicado en migración celular y organización tisular; asociado a invasión tumoral.</t>
+  </si>
+  <si>
+    <t>TIMP1</t>
+  </si>
+  <si>
+    <t>Tissue Inhibitor of Metalloproteinases 1</t>
+  </si>
+  <si>
+    <t>COL1A1</t>
+  </si>
+  <si>
+    <t>Collagen Type I Alpha 1 Chain</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>Fibroblast Activation Protein Alpha</t>
+  </si>
+  <si>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>Fibronectin 1</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>Vimentin</t>
+  </si>
+  <si>
+    <t>COL4A1</t>
+  </si>
+  <si>
+    <t>Collagen Type IV Alpha 1 Chain</t>
+  </si>
+  <si>
+    <t>MMP9</t>
+  </si>
+  <si>
+    <t>Matrix Metallopeptidase 9</t>
+  </si>
+  <si>
+    <t>TNC</t>
+  </si>
+  <si>
+    <t>Tenascin C</t>
+  </si>
+  <si>
+    <t>ACTA2</t>
+  </si>
+  <si>
+    <t>Actin Alpha 2, Smooth Muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan-Cytokeratin </t>
+  </si>
+  <si>
+    <t>KRTs</t>
+  </si>
+  <si>
+    <t>CyciF</t>
   </si>
 </sst>
 </file>
@@ -565,14 +629,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B5B8E1-AD21-4242-9513-BB7AD3B83808}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="83" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:D44"/>
     </sheetView>
   </sheetViews>
@@ -922,13 +986,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1224,13 +1288,13 @@
       <c r="C19" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -1645,9 +1709,9 @@
     <col min="1" max="1" width="10.90625" style="1"/>
     <col min="2" max="2" width="28.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="8"/>
-    <col min="6" max="6" width="29.54296875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="7"/>
+    <col min="6" max="6" width="29.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1683,7 +1747,7 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1703,7 +1767,7 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1723,7 +1787,7 @@
       <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1743,7 +1807,7 @@
       <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1763,7 +1827,7 @@
       <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1783,7 +1847,7 @@
       <c r="E7" s="5">
         <v>5</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1803,7 +1867,7 @@
       <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1823,7 +1887,7 @@
       <c r="E9" s="5">
         <v>7</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1843,7 +1907,7 @@
       <c r="E10" s="5">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -1863,7 +1927,7 @@
       <c r="E11" s="5">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1883,7 +1947,7 @@
       <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1903,7 +1967,7 @@
       <c r="E13" s="5">
         <v>11</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>114</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1923,7 +1987,7 @@
       <c r="E14" s="5">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -1943,7 +2007,7 @@
       <c r="E15" s="5">
         <v>13</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1963,7 +2027,7 @@
       <c r="E16" s="5">
         <v>14</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1983,7 +2047,7 @@
       <c r="E17" s="5">
         <v>15</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1994,7 +2058,7 @@
       <c r="E18" s="5">
         <v>16</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2005,7 +2069,7 @@
       <c r="E19" s="5">
         <v>17</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2016,7 +2080,7 @@
       <c r="E20" s="5">
         <v>18</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2027,7 +2091,7 @@
       <c r="E21" s="5">
         <v>19</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2038,7 +2102,7 @@
       <c r="E22" s="5">
         <v>20</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2049,7 +2113,7 @@
       <c r="E23" s="5">
         <v>21</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2059,4 +2123,724 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B556A32-102D-4DDC-B7E8-B9D86D78B53F}">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="50.81640625" customWidth="1"/>
+    <col min="9" max="9" width="74" customWidth="1"/>
+    <col min="12" max="12" width="32.54296875" customWidth="1"/>
+    <col min="15" max="15" width="51.26953125" customWidth="1"/>
+    <col min="18" max="18" width="67.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>202</v>
+      </c>
+      <c r="C2" s="2">
+        <v>52</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>270</v>
+      </c>
+      <c r="H2" s="2">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>708</v>
+      </c>
+      <c r="C4" s="2">
+        <v>166</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>249</v>
+      </c>
+      <c r="H4" s="2">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>106</v>
+      </c>
+      <c r="H5" s="2">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>191</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>109</v>
+      </c>
+      <c r="H7" s="2">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>134</v>
+      </c>
+      <c r="H8" s="2">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>227</v>
+      </c>
+      <c r="H10" s="2">
+        <v>62</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>11</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>120</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>17</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2">
+        <v>11</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F18" s="2">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>80</v>
+      </c>
+      <c r="H18" s="2">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F19" s="2">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2">
+        <v>129</v>
+      </c>
+      <c r="H19" s="2">
+        <v>32</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F20" s="2">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2">
+        <v>160</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="2">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2">
+        <v>70</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F23" s="2">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K1:L23">
+    <sortCondition ref="K1:K23"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>